--- a/data/input_data_poptest.xlsx
+++ b/data/input_data_poptest.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\farah.houdroge\Documents\GitHub\covasim-australia\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\covasim-australia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55CC6DA-E890-489A-9643-494B1844058B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FB4896-C692-46DF-8E7D-CA9B7C1FFD07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="839" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7320" yWindow="-18270" windowWidth="29040" windowHeight="17640" tabRatio="839" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="age_sex" sheetId="1" r:id="rId1"/>
@@ -30,17 +30,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">other_par!$A$1:$W$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -53,18 +43,36 @@
   <commentList>
     <comment ref="E1" authorId="0" shapeId="0" xr:uid="{045AFF27-0FD9-CB4D-9BD3-D86131B19BD5}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The time to trace contacts, applied to all targeted layers for this policy</t>
+        </r>
       </text>
     </comment>
     <comment ref="G1" authorId="1" shapeId="0" xr:uid="{32492FBF-3FB7-D547-8467-90931EBEF8B7}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The days on which the coverage changes</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -79,10 +87,19 @@
   <commentList>
     <comment ref="R1" authorId="0" shapeId="0" xr:uid="{7833F806-E614-7449-968E-2A674530B08E}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Only used if the the new_tests column of the epi data is incorrectly specified</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -388,7 +405,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="165" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1284,13 +1301,13 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -1349,7 +1366,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19">
       <c r="A2" s="84" t="s">
         <v>94</v>
       </c>
@@ -1409,7 +1426,7 @@
         <v>3653320</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19">
       <c r="A3" s="84"/>
       <c r="B3" s="42" t="s">
         <v>20</v>
@@ -1467,7 +1484,7 @@
         <v>3626711</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19">
       <c r="A4" s="84" t="s">
         <v>94</v>
       </c>
@@ -1543,7 +1560,7 @@
         <v>7280031</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19">
       <c r="A5" s="84"/>
       <c r="B5" s="42" t="s">
         <v>21</v>
@@ -1617,7 +1634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19">
       <c r="A6" s="84" t="s">
         <v>95</v>
       </c>
@@ -1676,7 +1693,7 @@
         <v>3653320</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19">
       <c r="A7" s="84"/>
       <c r="B7" s="43" t="s">
         <v>20</v>
@@ -1733,7 +1750,7 @@
         <v>3626711</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19">
       <c r="A8" s="84" t="s">
         <v>95</v>
       </c>
@@ -1792,7 +1809,7 @@
         <v>7280031</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19">
       <c r="A9" s="84"/>
       <c r="B9" s="43" t="s">
         <v>21</v>
@@ -1871,9 +1888,9 @@
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -1932,7 +1949,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19">
       <c r="A2" s="84" t="s">
         <v>94</v>
       </c>
@@ -1991,7 +2008,7 @@
         <v>3.142394895139812</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19">
       <c r="A3" s="84"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -2048,7 +2065,7 @@
         <v>3.447369363082847</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19">
       <c r="A4" s="84"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
@@ -2105,7 +2122,7 @@
         <v>3.491096707461578</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19">
       <c r="A5" s="84"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
@@ -2162,7 +2179,7 @@
         <v>2.8035552652388782</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19">
       <c r="A6" s="84"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
@@ -2219,7 +2236,7 @@
         <v>2.8193230902233828</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19">
       <c r="A7" s="84"/>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -2276,7 +2293,7 @@
         <v>2.9028392666823688</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19">
       <c r="A8" s="84"/>
       <c r="B8" s="1" t="s">
         <v>6</v>
@@ -2333,7 +2350,7 @@
         <v>3.397549967119486</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19">
       <c r="A9" s="84"/>
       <c r="B9" s="1" t="s">
         <v>7</v>
@@ -2390,7 +2407,7 @@
         <v>3.8473113538401371</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19">
       <c r="A10" s="84"/>
       <c r="B10" s="1" t="s">
         <v>8</v>
@@ -2447,7 +2464,7 @@
         <v>3.388315752026406</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19">
       <c r="A11" s="84"/>
       <c r="B11" s="1" t="s">
         <v>9</v>
@@ -2504,7 +2521,7 @@
         <v>3.0238909672497352</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19">
       <c r="A12" s="84"/>
       <c r="B12" s="1" t="s">
         <v>10</v>
@@ -2561,7 +2578,7 @@
         <v>2.9349870551939521</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19">
       <c r="A13" s="84"/>
       <c r="B13" s="1" t="s">
         <v>11</v>
@@ -2618,7 +2635,7 @@
         <v>2.986923069978725</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19">
       <c r="A14" s="84"/>
       <c r="B14" s="1" t="s">
         <v>12</v>
@@ -2675,7 +2692,7 @@
         <v>2.7694567147881339</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19">
       <c r="A15" s="84"/>
       <c r="B15" s="1" t="s">
         <v>13</v>
@@ -2732,7 +2749,7 @@
         <v>3.0065511260155788</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19">
       <c r="A16" s="84"/>
       <c r="B16" s="1" t="s">
         <v>14</v>
@@ -2789,7 +2806,7 @@
         <v>2.575179154391062</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19">
       <c r="A17" s="84"/>
       <c r="B17" s="1" t="s">
         <v>15</v>
@@ -2846,7 +2863,7 @@
         <v>3.7499707498729302</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19">
       <c r="A18" s="84" t="s">
         <v>95</v>
       </c>
@@ -2905,7 +2922,7 @@
         <v>3.142394895139812</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19">
       <c r="A19" s="84"/>
       <c r="B19" s="43" t="s">
         <v>1</v>
@@ -2962,7 +2979,7 @@
         <v>3.447369363082847</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19">
       <c r="A20" s="84"/>
       <c r="B20" s="43" t="s">
         <v>2</v>
@@ -3019,7 +3036,7 @@
         <v>3.491096707461578</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19">
       <c r="A21" s="84"/>
       <c r="B21" s="43" t="s">
         <v>3</v>
@@ -3076,7 +3093,7 @@
         <v>2.8035552652388782</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19">
       <c r="A22" s="84"/>
       <c r="B22" s="43" t="s">
         <v>4</v>
@@ -3133,7 +3150,7 @@
         <v>2.8193230902233828</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19">
       <c r="A23" s="84"/>
       <c r="B23" s="43" t="s">
         <v>5</v>
@@ -3190,7 +3207,7 @@
         <v>2.9028392666823688</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19">
       <c r="A24" s="84"/>
       <c r="B24" s="43" t="s">
         <v>6</v>
@@ -3247,7 +3264,7 @@
         <v>3.397549967119486</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19">
       <c r="A25" s="84"/>
       <c r="B25" s="43" t="s">
         <v>7</v>
@@ -3304,7 +3321,7 @@
         <v>3.8473113538401371</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19">
       <c r="A26" s="84"/>
       <c r="B26" s="43" t="s">
         <v>8</v>
@@ -3361,7 +3378,7 @@
         <v>3.388315752026406</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19">
       <c r="A27" s="84"/>
       <c r="B27" s="43" t="s">
         <v>9</v>
@@ -3418,7 +3435,7 @@
         <v>3.0238909672497352</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19">
       <c r="A28" s="84"/>
       <c r="B28" s="43" t="s">
         <v>10</v>
@@ -3475,7 +3492,7 @@
         <v>2.9349870551939521</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19">
       <c r="A29" s="84"/>
       <c r="B29" s="43" t="s">
         <v>11</v>
@@ -3532,7 +3549,7 @@
         <v>2.986923069978725</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19">
       <c r="A30" s="84"/>
       <c r="B30" s="43" t="s">
         <v>12</v>
@@ -3589,7 +3606,7 @@
         <v>2.7694567147881339</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19">
       <c r="A31" s="84"/>
       <c r="B31" s="43" t="s">
         <v>13</v>
@@ -3646,7 +3663,7 @@
         <v>3.0065511260155788</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19">
       <c r="A32" s="84"/>
       <c r="B32" s="43" t="s">
         <v>14</v>
@@ -3703,7 +3720,7 @@
         <v>2.575179154391062</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19">
       <c r="A33" s="84"/>
       <c r="B33" s="43" t="s">
         <v>15</v>
@@ -3780,9 +3797,9 @@
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -3841,7 +3858,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19">
       <c r="A2" s="84" t="s">
         <v>94</v>
       </c>
@@ -3900,7 +3917,7 @@
         <v>3.786957018010388</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19">
       <c r="A3" s="84"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -3957,7 +3974,7 @@
         <v>3.9348011499470008</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19">
       <c r="A4" s="84"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
@@ -4014,7 +4031,7 @@
         <v>4.2221215584837593</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19">
       <c r="A5" s="84"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
@@ -4071,7 +4088,7 @@
         <v>4.5235237072029788</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19">
       <c r="A6" s="84"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
@@ -4128,7 +4145,7 @@
         <v>0.74403930295105736</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19">
       <c r="A7" s="84"/>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -4185,7 +4202,7 @@
         <v>0.6863027192509874</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19">
       <c r="A8" s="84"/>
       <c r="B8" s="1" t="s">
         <v>6</v>
@@ -4242,7 +4259,7 @@
         <v>1.1203392569299271</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19">
       <c r="A9" s="84"/>
       <c r="B9" s="1" t="s">
         <v>7</v>
@@ -4299,7 +4316,7 @@
         <v>0.90552436526956881</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19">
       <c r="A10" s="84"/>
       <c r="B10" s="1" t="s">
         <v>8</v>
@@ -4356,7 +4373,7 @@
         <v>0.8346068492263633</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19">
       <c r="A11" s="84"/>
       <c r="B11" s="1" t="s">
         <v>9</v>
@@ -4413,7 +4430,7 @@
         <v>1.4900293930885691</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19">
       <c r="A12" s="84"/>
       <c r="B12" s="1" t="s">
         <v>10</v>
@@ -4470,7 +4487,7 @@
         <v>1.6491250459603419</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19">
       <c r="A13" s="84"/>
       <c r="B13" s="1" t="s">
         <v>11</v>
@@ -4527,7 +4544,7 @@
         <v>1.3875085526364379</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19">
       <c r="A14" s="84"/>
       <c r="B14" s="1" t="s">
         <v>12</v>
@@ -4584,7 +4601,7 @@
         <v>0.45283807239355922</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19">
       <c r="A15" s="84"/>
       <c r="B15" s="1" t="s">
         <v>13</v>
@@ -4641,7 +4658,7 @@
         <v>0.11671132076003909</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19">
       <c r="A16" s="84"/>
       <c r="B16" s="1" t="s">
         <v>14</v>
@@ -4698,7 +4715,7 @@
         <v>0.14607079202981371</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19">
       <c r="A17" s="84"/>
       <c r="B17" s="1" t="s">
         <v>15</v>
@@ -4755,7 +4772,7 @@
         <v>5.008726668469516E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19">
       <c r="A18" s="84" t="s">
         <v>95</v>
       </c>
@@ -4814,7 +4831,7 @@
         <v>3.786957018010388</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19">
       <c r="A19" s="84"/>
       <c r="B19" s="43" t="s">
         <v>1</v>
@@ -4871,7 +4888,7 @@
         <v>3.9348011499470008</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19">
       <c r="A20" s="84"/>
       <c r="B20" s="43" t="s">
         <v>2</v>
@@ -4928,7 +4945,7 @@
         <v>4.2221215584837593</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19">
       <c r="A21" s="84"/>
       <c r="B21" s="43" t="s">
         <v>3</v>
@@ -4985,7 +5002,7 @@
         <v>4.5235237072029788</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19">
       <c r="A22" s="84"/>
       <c r="B22" s="43" t="s">
         <v>4</v>
@@ -5042,7 +5059,7 @@
         <v>0.74403930295105736</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19">
       <c r="A23" s="84"/>
       <c r="B23" s="43" t="s">
         <v>5</v>
@@ -5099,7 +5116,7 @@
         <v>0.6863027192509874</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19">
       <c r="A24" s="84"/>
       <c r="B24" s="43" t="s">
         <v>6</v>
@@ -5156,7 +5173,7 @@
         <v>1.1203392569299271</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19">
       <c r="A25" s="84"/>
       <c r="B25" s="43" t="s">
         <v>7</v>
@@ -5213,7 +5230,7 @@
         <v>0.90552436526956881</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19">
       <c r="A26" s="84"/>
       <c r="B26" s="43" t="s">
         <v>8</v>
@@ -5270,7 +5287,7 @@
         <v>0.8346068492263633</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19">
       <c r="A27" s="84"/>
       <c r="B27" s="43" t="s">
         <v>9</v>
@@ -5327,7 +5344,7 @@
         <v>1.4900293930885691</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19">
       <c r="A28" s="84"/>
       <c r="B28" s="43" t="s">
         <v>10</v>
@@ -5384,7 +5401,7 @@
         <v>1.6491250459603419</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19">
       <c r="A29" s="84"/>
       <c r="B29" s="43" t="s">
         <v>11</v>
@@ -5441,7 +5458,7 @@
         <v>1.3875085526364379</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19">
       <c r="A30" s="84"/>
       <c r="B30" s="43" t="s">
         <v>12</v>
@@ -5498,7 +5515,7 @@
         <v>0.45283807239355922</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19">
       <c r="A31" s="84"/>
       <c r="B31" s="43" t="s">
         <v>13</v>
@@ -5555,7 +5572,7 @@
         <v>0.11671132076003909</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19">
       <c r="A32" s="84"/>
       <c r="B32" s="43" t="s">
         <v>14</v>
@@ -5612,7 +5629,7 @@
         <v>0.14607079202981371</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19">
       <c r="A33" s="84"/>
       <c r="B33" s="43" t="s">
         <v>15</v>
@@ -5689,9 +5706,9 @@
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -5750,7 +5767,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19">
       <c r="A2" s="84" t="s">
         <v>94</v>
       </c>
@@ -5809,7 +5826,7 @@
         <v>1.2058515015357481E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19">
       <c r="A3" s="84"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -5866,7 +5883,7 @@
         <v>1.3495557764948161E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19">
       <c r="A4" s="84"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
@@ -5923,7 +5940,7 @@
         <v>9.485955296712914E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19">
       <c r="A5" s="84"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
@@ -5980,7 +5997,7 @@
         <v>2.427555718442965</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19">
       <c r="A6" s="84"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
@@ -6037,7 +6054,7 @@
         <v>5.1298348621975034</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19">
       <c r="A7" s="84"/>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -6094,7 +6111,7 @@
         <v>7.0001439707038093</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19">
       <c r="A8" s="84"/>
       <c r="B8" s="1" t="s">
         <v>6</v>
@@ -6151,7 +6168,7 @@
         <v>6.6457458949506574</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19">
       <c r="A9" s="84"/>
       <c r="B9" s="1" t="s">
         <v>7</v>
@@ -6208,7 +6225,7 @@
         <v>6.9178066055799468</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19">
       <c r="A10" s="84"/>
       <c r="B10" s="1" t="s">
         <v>8</v>
@@ -6265,7 +6282,7 @@
         <v>7.018227694889819</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19">
       <c r="A11" s="84"/>
       <c r="B11" s="1" t="s">
         <v>9</v>
@@ -6322,7 +6339,7 @@
         <v>5.5267976467750941</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19">
       <c r="A12" s="84"/>
       <c r="B12" s="1" t="s">
         <v>10</v>
@@ -6379,7 +6396,7 @@
         <v>5.3668100694400307</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19">
       <c r="A13" s="84"/>
       <c r="B13" s="1" t="s">
         <v>11</v>
@@ -6436,7 +6453,7 @@
         <v>2.4137237412958741</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19">
       <c r="A14" s="84"/>
       <c r="B14" s="1" t="s">
         <v>12</v>
@@ -6493,7 +6510,7 @@
         <v>0.1033052286591797</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19">
       <c r="A15" s="84"/>
       <c r="B15" s="1" t="s">
         <v>13</v>
@@ -6550,7 +6567,7 @@
         <v>6.0687793070067367E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19">
       <c r="A16" s="84"/>
       <c r="B16" s="1" t="s">
         <v>14</v>
@@ -6607,7 +6624,7 @@
         <v>3.612164506622016E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19">
       <c r="A17" s="84"/>
       <c r="B17" s="1" t="s">
         <v>15</v>
@@ -6664,7 +6681,7 @@
         <v>2.837882423265888E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19">
       <c r="A18" s="84" t="s">
         <v>95</v>
       </c>
@@ -6723,7 +6740,7 @@
         <v>1.2058515015357481E-5</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19">
       <c r="A19" s="84"/>
       <c r="B19" s="43" t="s">
         <v>1</v>
@@ -6780,7 +6797,7 @@
         <v>1.3495557764948161E-5</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19">
       <c r="A20" s="84"/>
       <c r="B20" s="43" t="s">
         <v>2</v>
@@ -6837,7 +6854,7 @@
         <v>9.485955296712914E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19">
       <c r="A21" s="84"/>
       <c r="B21" s="43" t="s">
         <v>3</v>
@@ -6894,7 +6911,7 @@
         <v>2.427555718442965</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19">
       <c r="A22" s="84"/>
       <c r="B22" s="43" t="s">
         <v>4</v>
@@ -6951,7 +6968,7 @@
         <v>5.1298348621975034</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19">
       <c r="A23" s="84"/>
       <c r="B23" s="43" t="s">
         <v>5</v>
@@ -7008,7 +7025,7 @@
         <v>7.0001439707038093</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19">
       <c r="A24" s="84"/>
       <c r="B24" s="43" t="s">
         <v>6</v>
@@ -7065,7 +7082,7 @@
         <v>6.6457458949506574</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19">
       <c r="A25" s="84"/>
       <c r="B25" s="43" t="s">
         <v>7</v>
@@ -7122,7 +7139,7 @@
         <v>6.9178066055799468</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19">
       <c r="A26" s="84"/>
       <c r="B26" s="43" t="s">
         <v>8</v>
@@ -7179,7 +7196,7 @@
         <v>7.018227694889819</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19">
       <c r="A27" s="84"/>
       <c r="B27" s="43" t="s">
         <v>9</v>
@@ -7236,7 +7253,7 @@
         <v>5.5267976467750941</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19">
       <c r="A28" s="84"/>
       <c r="B28" s="43" t="s">
         <v>10</v>
@@ -7293,7 +7310,7 @@
         <v>5.3668100694400307</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19">
       <c r="A29" s="84"/>
       <c r="B29" s="43" t="s">
         <v>11</v>
@@ -7350,7 +7367,7 @@
         <v>2.4137237412958741</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19">
       <c r="A30" s="84"/>
       <c r="B30" s="43" t="s">
         <v>12</v>
@@ -7407,7 +7424,7 @@
         <v>0.1033052286591797</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19">
       <c r="A31" s="84"/>
       <c r="B31" s="43" t="s">
         <v>13</v>
@@ -7464,7 +7481,7 @@
         <v>6.0687793070067367E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19">
       <c r="A32" s="84"/>
       <c r="B32" s="43" t="s">
         <v>14</v>
@@ -7521,7 +7538,7 @@
         <v>3.612164506622016E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19">
       <c r="A33" s="84"/>
       <c r="B33" s="43" t="s">
         <v>15</v>
@@ -7598,9 +7615,9 @@
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -7659,7 +7676,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19">
       <c r="A2" s="84" t="s">
         <v>94</v>
       </c>
@@ -7718,7 +7735,7 @@
         <v>3.216455840579445</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19">
       <c r="A3" s="84"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -7775,7 +7792,7 @@
         <v>3.481578072855195</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19">
       <c r="A4" s="84"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
@@ -7832,7 +7849,7 @@
         <v>3.609129585425773</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19">
       <c r="A5" s="84"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
@@ -7889,7 +7906,7 @@
         <v>3.9158042389050278</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19">
       <c r="A6" s="84"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
@@ -7946,7 +7963,7 @@
         <v>4.1670854297156046</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19">
       <c r="A7" s="84"/>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -8003,7 +8020,7 @@
         <v>4.3887945698456274</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19">
       <c r="A8" s="84"/>
       <c r="B8" s="1" t="s">
         <v>6</v>
@@ -8060,7 +8077,7 @@
         <v>5.4743216409121054</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19">
       <c r="A9" s="84"/>
       <c r="B9" s="1" t="s">
         <v>7</v>
@@ -8117,7 +8134,7 @@
         <v>5.9075823915492149</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19">
       <c r="A10" s="84"/>
       <c r="B10" s="1" t="s">
         <v>8</v>
@@ -8174,7 +8191,7 @@
         <v>4.7799607182574073</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19">
       <c r="A11" s="84"/>
       <c r="B11" s="1" t="s">
         <v>9</v>
@@ -8231,7 +8248,7 @@
         <v>3.4554747372157411</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19">
       <c r="A12" s="84"/>
       <c r="B12" s="1" t="s">
         <v>10</v>
@@ -8288,7 +8305,7 @@
         <v>4.1090954130498583</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19">
       <c r="A13" s="84"/>
       <c r="B13" s="1" t="s">
         <v>11</v>
@@ -8345,7 +8362,7 @@
         <v>4.0933919831354988</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19">
       <c r="A14" s="84"/>
       <c r="B14" s="1" t="s">
         <v>12</v>
@@ -8402,7 +8419,7 @@
         <v>3.9303617283862722</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19">
       <c r="A15" s="84"/>
       <c r="B15" s="1" t="s">
         <v>13</v>
@@ -8459,7 +8476,7 @@
         <v>4.0735897391867004</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19">
       <c r="A16" s="84"/>
       <c r="B16" s="1" t="s">
         <v>14</v>
@@ -8516,7 +8533,7 @@
         <v>4.0069815625367138</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19">
       <c r="A17" s="84"/>
       <c r="B17" s="1" t="s">
         <v>15</v>
@@ -8573,7 +8590,7 @@
         <v>2.7527243093054228</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19">
       <c r="A18" s="84" t="s">
         <v>95</v>
       </c>
@@ -8632,7 +8649,7 @@
         <v>3.216455840579445</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19">
       <c r="A19" s="84"/>
       <c r="B19" s="43" t="s">
         <v>1</v>
@@ -8689,7 +8706,7 @@
         <v>3.481578072855195</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19">
       <c r="A20" s="84"/>
       <c r="B20" s="43" t="s">
         <v>2</v>
@@ -8746,7 +8763,7 @@
         <v>3.609129585425773</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19">
       <c r="A21" s="84"/>
       <c r="B21" s="43" t="s">
         <v>3</v>
@@ -8803,7 +8820,7 @@
         <v>3.9158042389050278</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19">
       <c r="A22" s="84"/>
       <c r="B22" s="43" t="s">
         <v>4</v>
@@ -8860,7 +8877,7 @@
         <v>4.1670854297156046</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19">
       <c r="A23" s="84"/>
       <c r="B23" s="43" t="s">
         <v>5</v>
@@ -8917,7 +8934,7 @@
         <v>4.3887945698456274</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19">
       <c r="A24" s="84"/>
       <c r="B24" s="43" t="s">
         <v>6</v>
@@ -8974,7 +8991,7 @@
         <v>5.4743216409121054</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19">
       <c r="A25" s="84"/>
       <c r="B25" s="43" t="s">
         <v>7</v>
@@ -9031,7 +9048,7 @@
         <v>5.9075823915492149</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19">
       <c r="A26" s="84"/>
       <c r="B26" s="43" t="s">
         <v>8</v>
@@ -9088,7 +9105,7 @@
         <v>4.7799607182574073</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19">
       <c r="A27" s="84"/>
       <c r="B27" s="43" t="s">
         <v>9</v>
@@ -9145,7 +9162,7 @@
         <v>3.4554747372157411</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19">
       <c r="A28" s="84"/>
       <c r="B28" s="43" t="s">
         <v>10</v>
@@ -9202,7 +9219,7 @@
         <v>4.1090954130498583</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19">
       <c r="A29" s="84"/>
       <c r="B29" s="43" t="s">
         <v>11</v>
@@ -9259,7 +9276,7 @@
         <v>4.0933919831354988</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19">
       <c r="A30" s="84"/>
       <c r="B30" s="43" t="s">
         <v>12</v>
@@ -9316,7 +9333,7 @@
         <v>3.9303617283862722</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19">
       <c r="A31" s="84"/>
       <c r="B31" s="43" t="s">
         <v>13</v>
@@ -9373,7 +9390,7 @@
         <v>4.0735897391867004</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19">
       <c r="A32" s="84"/>
       <c r="B32" s="43" t="s">
         <v>14</v>
@@ -9430,7 +9447,7 @@
         <v>4.0069815625367138</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19">
       <c r="A33" s="84"/>
       <c r="B33" s="43" t="s">
         <v>15</v>
@@ -9507,15 +9524,15 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -9538,7 +9555,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="42" t="s">
         <v>94</v>
       </c>
@@ -9561,7 +9578,7 @@
         <v>1.779496196178006</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="43" t="s">
         <v>95</v>
       </c>
@@ -9584,7 +9601,7 @@
         <v>1.779496196178006</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="B4" s="83"/>
       <c r="C4" s="83"/>
       <c r="D4" s="83"/>
@@ -9609,20 +9626,20 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" style="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.42578125" style="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="37" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.88671875" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.44140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="37" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="38" t="s">
         <v>17</v>
       </c>
@@ -9651,7 +9668,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="85" t="s">
         <v>94</v>
       </c>
@@ -9674,7 +9691,7 @@
       <c r="H2" s="20"/>
       <c r="I2" s="21"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="86"/>
       <c r="B3" s="41"/>
       <c r="C3" s="24"/>
@@ -9685,7 +9702,7 @@
       <c r="H3" s="23"/>
       <c r="I3" s="24"/>
     </row>
-    <row r="4" spans="1:9" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="62" customFormat="1">
       <c r="A4" s="87" t="s">
         <v>95</v>
       </c>
@@ -9708,7 +9725,7 @@
       <c r="H4" s="61"/>
       <c r="I4" s="79"/>
     </row>
-    <row r="5" spans="1:9" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="62" customFormat="1">
       <c r="A5" s="88"/>
       <c r="B5" s="81"/>
       <c r="C5" s="76"/>
@@ -9737,28 +9754,28 @@
   </sheetPr>
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="81.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="18" customWidth="1"/>
-    <col min="5" max="5" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="81.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="18" customWidth="1"/>
+    <col min="5" max="5" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="25" t="s">
         <v>17</v>
       </c>
@@ -9799,7 +9816,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2" s="89" t="s">
         <v>94</v>
       </c>
@@ -9836,7 +9853,7 @@
         <v>43976</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" s="90"/>
       <c r="B3" s="46" t="s">
         <v>82</v>
@@ -9872,7 +9889,7 @@
         <v>43990</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" s="90"/>
       <c r="B4" s="46" t="s">
         <v>83</v>
@@ -9908,7 +9925,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" s="90"/>
       <c r="B5" s="46" t="s">
         <v>84</v>
@@ -9944,7 +9961,7 @@
         <v>44004</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" s="90"/>
       <c r="B6" s="46" t="s">
         <v>92</v>
@@ -9980,7 +9997,7 @@
         <v>44037</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" s="90"/>
       <c r="B7" s="46" t="s">
         <v>88</v>
@@ -10013,7 +10030,7 @@
       </c>
       <c r="M7" s="50"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" s="90"/>
       <c r="B8" s="46" t="s">
         <v>79</v>
@@ -10044,7 +10061,7 @@
       <c r="L8" s="49"/>
       <c r="M8" s="53"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" s="91"/>
       <c r="B9" s="29" t="s">
         <v>81</v>
@@ -10075,7 +10092,7 @@
       <c r="L9" s="54"/>
       <c r="M9" s="24"/>
     </row>
-    <row r="10" spans="1:13" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" s="62" customFormat="1">
       <c r="A10" s="92" t="s">
         <v>95</v>
       </c>
@@ -10112,7 +10129,7 @@
         <v>43976</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="62" customFormat="1">
       <c r="A11" s="93"/>
       <c r="B11" s="63" t="s">
         <v>82</v>
@@ -10147,7 +10164,7 @@
         <v>43990</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" s="62" customFormat="1">
       <c r="A12" s="93"/>
       <c r="B12" s="63" t="s">
         <v>83</v>
@@ -10182,7 +10199,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" s="62" customFormat="1">
       <c r="A13" s="93"/>
       <c r="B13" s="63" t="s">
         <v>84</v>
@@ -10217,7 +10234,7 @@
         <v>44004</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" s="62" customFormat="1">
       <c r="A14" s="93"/>
       <c r="B14" s="63" t="s">
         <v>92</v>
@@ -10252,7 +10269,7 @@
         <v>44037</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" s="62" customFormat="1">
       <c r="A15" s="93"/>
       <c r="B15" s="63" t="s">
         <v>88</v>
@@ -10285,7 +10302,7 @@
       </c>
       <c r="M15" s="70"/>
     </row>
-    <row r="16" spans="1:13" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" s="62" customFormat="1">
       <c r="A16" s="93"/>
       <c r="B16" s="63" t="s">
         <v>79</v>
@@ -10316,7 +10333,7 @@
       <c r="L16" s="66"/>
       <c r="M16" s="67"/>
     </row>
-    <row r="17" spans="1:13" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" s="62" customFormat="1">
       <c r="A17" s="94"/>
       <c r="B17" s="71" t="s">
         <v>81</v>
@@ -10347,7 +10364,7 @@
       <c r="L17" s="75"/>
       <c r="M17" s="76"/>
     </row>
-    <row r="18" spans="1:13" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" s="62" customFormat="1">
       <c r="B18" s="77"/>
       <c r="D18" s="65"/>
     </row>
@@ -10368,27 +10385,27 @@
   </sheetPr>
   <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" customWidth="1"/>
+    <col min="15" max="15" width="13.5546875" customWidth="1"/>
+    <col min="16" max="16" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -10459,7 +10476,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23">
       <c r="A2" s="1" t="s">
         <v>94</v>
       </c>
@@ -10531,7 +10548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23">
       <c r="A3" s="43" t="s">
         <v>95</v>
       </c>
@@ -10623,21 +10640,21 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="6" t="s">
         <v>17</v>
       </c>
@@ -10669,7 +10686,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="6" t="s">
         <v>94</v>
       </c>
@@ -10701,7 +10718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="6" t="s">
         <v>95</v>
       </c>
@@ -10750,20 +10767,20 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="6" t="s">
         <v>17</v>
       </c>
@@ -10795,7 +10812,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="6" t="s">
         <v>94</v>
       </c>
@@ -10827,7 +10844,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="6" t="s">
         <v>95</v>
       </c>
@@ -10875,20 +10892,20 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="6" t="s">
         <v>17</v>
       </c>
@@ -10920,7 +10937,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="6" t="s">
         <v>94</v>
       </c>
@@ -10952,7 +10969,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="6" t="s">
         <v>95</v>
       </c>
@@ -11000,21 +11017,21 @@
       <selection activeCell="B2" sqref="B2:J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="5"/>
-    <col min="9" max="9" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" style="5"/>
+    <col min="9" max="9" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="11" t="s">
         <v>17</v>
       </c>
@@ -11046,7 +11063,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="11" t="s">
         <v>94</v>
       </c>
@@ -11078,7 +11095,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="6" t="s">
         <v>95</v>
       </c>
